--- a/Task 1.xlsx
+++ b/Task 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\OneDrive\Desktop\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F94A42B-6AD2-481F-8E45-BAFEBE737E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C5BBA28B-D23D-40F7-862D-5BAF6D96A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{40AEE022-B89D-4746-A7A1-3428EBC7B540}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -61,9 +61,6 @@
     <t>ANITA.Mehta</t>
   </si>
   <si>
-    <t>anita_mehta@company.com</t>
-  </si>
-  <si>
     <t>FIN-02</t>
   </si>
   <si>
@@ -79,12 +76,6 @@
     <t>Rajiv Roy</t>
   </si>
   <si>
-    <t>rajivroy@company.com</t>
-  </si>
-  <si>
-    <t>IT-03</t>
-  </si>
-  <si>
     <t>IND-BLR</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>Trim ()</t>
   </si>
   <si>
-    <t xml:space="preserve">   HR-01   </t>
-  </si>
-  <si>
     <t>Left()</t>
   </si>
   <si>
@@ -131,13 +119,55 @@
   </si>
   <si>
     <t>Find(Case sensetive)</t>
+  </si>
+  <si>
+    <t>rajivroy@yahoo.com</t>
+  </si>
+  <si>
+    <t>anita_mehta@gmail.com</t>
+  </si>
+  <si>
+    <t>Email_Validation</t>
+  </si>
+  <si>
+    <t>Nesting</t>
+  </si>
+  <si>
+    <t>T/F</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Valid Phone No.</t>
+  </si>
+  <si>
+    <t>Proper()</t>
+  </si>
+  <si>
+    <t>IT-033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-01   </t>
+  </si>
+  <si>
+    <t>Department code</t>
+  </si>
+  <si>
+    <t>Masked No</t>
+  </si>
+  <si>
+    <t>Concat()</t>
+  </si>
+  <si>
+    <t>Department Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +309,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -639,17 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -820,34 +854,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -913,8 +944,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -957,73 +1014,85 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1057,6 +1126,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1377,374 +1447,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936E78A9-FB8D-4518-8BAD-0A3115BD8A6E}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="C1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="32.90625" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="32.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" customWidth="1"/>
+    <col min="13" max="14" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <f>91-9876543210</f>
         <v>-9876543119</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="1">
+        <f>FIND("@company",E2)</f>
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <f>ISNUMBER(I2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>IF(J2,"Valid","invalid")</f>
+        <v>Valid</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>IF(ISNUMBER(FIND("@company",E2)),"Valid","invalid")</f>
+        <v>Valid</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f>RIGHT(SUBSTITUTE(H2," ",""),10)</f>
+        <v>9876543119</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f>_xlfn.CONCAT(LEFT(M2,2),"******",RIGHT(M2,2))</f>
+        <v>98******19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="e">
+        <f t="shared" ref="I3:I5" si="0">FIND("@company",E3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <f t="shared" ref="J3:J5" si="1">ISNUMBER(I3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K5" si="2">IF(J3,"Valid","invalid")</f>
+        <v>invalid</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" ref="L3:L5" si="3">IF(ISNUMBER(FIND("@company",E3)),"Valid","invalid")</f>
+        <v>invalid</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="shared" ref="M3:M5" si="4">RIGHT(SUBSTITUTE(H3," ",""),10)</f>
+        <v>9876543210</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f t="shared" ref="N3:N5" si="5">_xlfn.CONCAT(LEFT(M3,2),"******",RIGHT(M3,2))</f>
+        <v>98******10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I4" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>invalid</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>invalid</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>9123456789</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>91******89</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Valid</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Valid</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>9988776655</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>99******55</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="3:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="24"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="E9" s="11">
+        <f>LEN(D2)</f>
+        <v>13</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f>TRIM(F2)</f>
+        <v>HR-01</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f>TRIM(H2)</f>
+        <v>-9876543119</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f>LEFT(D2,4)</f>
+        <v>rahu</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>RIGHT(D2,5)</f>
+        <v>harma</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="E10" s="12">
+        <f t="shared" ref="E10:E11" si="6">LEN(D3)</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="15" t="str">
+        <f t="shared" ref="F10:F12" si="7">TRIM(F3)</f>
+        <v>FIN-02</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" ref="G10:G12" si="8">TRIM(H3)</f>
+        <v>98765 43210</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" ref="H10:H12" si="9">LEFT(D3,4)</f>
+        <v>ANIT</v>
+      </c>
+      <c r="I10" s="9" t="str">
+        <f t="shared" ref="I10:I12" si="10">RIGHT(D3,5)</f>
+        <v>Mehta</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="E11" s="12">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="F11" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>IT-033</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>+91 9123456789</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Raji</v>
+      </c>
+      <c r="I11" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>v Roy</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="13">
+        <f>LEN(D5)</f>
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>HR-01</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>091-9988776655</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>sneh</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>patel</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="17"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="E15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="32" t="s">
+      <c r="G15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="27"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C9" s="11">
-        <f>LEN(B2)</f>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="6" t="str">
+        <f>MID(E2,13,8)</f>
+        <v>@company</v>
+      </c>
+      <c r="F17" s="22" t="str">
+        <f>SUBSTITUTE(D2,"."," ")</f>
+        <v>rahul  sharma</v>
+      </c>
+      <c r="G17" s="22" t="e">
+        <f>FIND("Rahul",E2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" s="8">
+        <f>SEARCH("@",E2)</f>
         <v>13</v>
       </c>
-      <c r="D9" s="14" t="str">
-        <f>TRIM(D2)</f>
-        <v>HR-01</v>
-      </c>
-      <c r="E9" s="7" t="str">
-        <f>TRIM(F2)</f>
-        <v>-9876543119</v>
-      </c>
-      <c r="F9" s="6" t="str">
-        <f>LEFT(B2,4)</f>
-        <v>rahu</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f>RIGHT(B2,5)</f>
-        <v>harma</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C10" s="12">
-        <f t="shared" ref="C10:C11" si="0">LEN(B3)</f>
-        <v>11</v>
-      </c>
-      <c r="D10" s="15" t="str">
-        <f t="shared" ref="D10:D12" si="1">TRIM(D3)</f>
-        <v>FIN-02</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f t="shared" ref="E10:E12" si="2">TRIM(F3)</f>
-        <v>98765 43210</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" ref="F10:F12" si="3">LEFT(B3,4)</f>
-        <v>ANIT</v>
-      </c>
-      <c r="G10" s="9" t="str">
-        <f t="shared" ref="G10:G12" si="4">RIGHT(B3,5)</f>
-        <v>Mehta</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="2" t="str">
+        <f t="shared" ref="E18:E20" si="11">MID(E3,13,8)</f>
+        <v>gmail.co</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" ref="F18:F20" si="12">SUBSTITUTE(D3,"."," ")</f>
+        <v>ANITA Mehta</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" ref="G18:G20" si="13">FIND("@",E3)</f>
+        <v>12</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" ref="H18:H20" si="14">SEARCH("@",E3)</f>
+        <v>12</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>oo.com</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Rajiv Roy</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="D11" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>IT-03</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>+91 9123456789</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Raji</v>
-      </c>
-      <c r="G11" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>v Roy</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="13">
-        <f>LEN(B5)</f>
-        <v>11</v>
-      </c>
-      <c r="D12" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>HR-01</v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>091-9988776655</v>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>sneh</v>
-      </c>
-      <c r="G12" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>patel</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="19"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C15" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="6" t="str">
-        <f>MID(C2,13,8)</f>
-        <v>@company</v>
-      </c>
-      <c r="D17" s="25" t="str">
-        <f>SUBSTITUTE(B2,"."," ")</f>
-        <v>rahul  sharma</v>
-      </c>
-      <c r="E17" s="25" t="e">
-        <f>FIND("Rahul",C2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="25">
-        <f>SEARCH("@",C2)</f>
-        <v>13</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="2" t="str">
-        <f t="shared" ref="C18:C20" si="5">MID(C3,13,8)</f>
+      <c r="H19" s="8">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>company.</v>
       </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" ref="D18:D20" si="6">SUBSTITUTE(B3,"."," ")</f>
-        <v>ANITA Mehta</v>
-      </c>
-      <c r="E18" s="25">
-        <f t="shared" ref="E18:E20" si="7">FIND("@",C3)</f>
+      <c r="F20" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>sneha patel</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="F18" s="25">
-        <f t="shared" ref="F18:F20" si="8">SEARCH("@",C3)</f>
+      <c r="H20" s="8">
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>pany.com</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E25" s="6" t="str">
+        <f>PROPER(SUBSTITUTE(D2,"."," "))</f>
+        <v>Rahul  Sharma</v>
+      </c>
+      <c r="F25" s="22" t="str">
+        <f>RIGHT(F2,LEN(F2)-FIND("-",F2))</f>
+        <v xml:space="preserve">01   </v>
+      </c>
+      <c r="G25" s="22" t="str">
+        <f>LEFT(F2,FIND("-",F2)-1)</f>
+        <v>HR</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f>_xlfn.CONCAT(LEFT(M2,2),"*****",RIGHT(M2,2))</f>
+        <v>98*****19</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E26" s="2" t="str">
+        <f t="shared" ref="E26:E28" si="15">PROPER(SUBSTITUTE(D3,"."," "))</f>
+        <v>Anita Mehta</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" ref="F26:F28" si="16">RIGHT(F3,LEN(F3)-FIND("-",F3))</f>
+        <v>02</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" ref="G26:G28" si="17">LEFT(F3,FIND("-",F3)-1)</f>
+        <v>FIN</v>
+      </c>
+      <c r="H26" s="9" t="str">
+        <f t="shared" ref="H26:H28" si="18">_xlfn.CONCAT(LEFT(M3,2),"*****",RIGHT(M3,2))</f>
+        <v>98*****10</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="15"/>
         <v>Rajiv Roy</v>
       </c>
-      <c r="E19" s="25">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>company.</v>
-      </c>
-      <c r="D20" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>sneha patel</v>
-      </c>
-      <c r="E20" s="25">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>033</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>IT</v>
+      </c>
+      <c r="H27" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>91*****89</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>Sneha Patel</v>
+      </c>
+      <c r="F28" s="18" t="str">
+        <f t="shared" si="16"/>
+        <v>01</v>
+      </c>
+      <c r="G28" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>HR</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>99*****55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{2B06CE12-9B28-4F2F-929A-FF3EE3526148}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{327BD36B-B9BC-4638-B900-F3EC0F9769E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>